--- a/biology/Botanique/Costus_comosus/Costus_comosus.xlsx
+++ b/biology/Botanique/Costus_comosus/Costus_comosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Costus comosus est une espèce de plantes à fleurs de la famille des Costaceae.
 C'est une plante vivace qui trouve son origine du Sud de l'Amérique centrale au Nord de l'Amérique du Sud, au Costa Rica, en Colombie et Nord du Venezuela.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles mesurent de 10 à 35 cm de long et de 2,5 à 8 cm de large, et leurs deux faces sont densément pubescentes et velues.
 Les inflorescences sont de formes conique à ovoïde ou cylindrique. Elles sont longues de 6 à 10 cm, rarement 12, et ont un diamètre de 4,5 à 5,5 cm.
